--- a/results/performance/nim/Nim_PerformanceResults_Comparison_001_to_064.xlsx
+++ b/results/performance/nim/Nim_PerformanceResults_Comparison_001_to_064.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nim_PerformanceResults_Epsilon0" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
+    <sheet name="Graph (no title)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -5116,11 +5117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191361792"/>
-        <c:axId val="191363712"/>
+        <c:axId val="174686208"/>
+        <c:axId val="174688128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191361792"/>
+        <c:axId val="174686208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5158,7 +5159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191363712"/>
+        <c:crossAx val="174688128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5168,7 +5169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191363712"/>
+        <c:axId val="174688128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5199,7 +5200,4596 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191361792"/>
+        <c:crossAx val="174686208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52566666666666662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54925000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56716666666666671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57171428571428573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57474999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5768888888888889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5918181818181818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59858333333333336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60823076923076924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62546666666666662</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63324999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64135294117647057</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64783333333333337</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65473684210526317</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65959999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66476190476190478</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66859090909090912</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67147826086956519</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67504166666666665</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.68161538461538462</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68455555555555558</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.68689285714285719</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6895862068965517</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.69189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69438709677419352</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69571875000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69678787878787873</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.69820588235294123</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.69931428571428567</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.70108333333333328</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.70218918918918916</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70384210526315794</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.70497435897435901</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.70584999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.70704878048780484</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.70745238095238094</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.70851162790697675</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.71025000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.71142222222222218</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.71208695652173915</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.71295744680851059</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.71370833333333328</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.71451020408163268</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.71672549019607845</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.7173846153846154</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.71796226415094344</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.71851851851851856</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.7190545454545455</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.71992857142857147</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.72078947368421054</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.72139655172413797</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.72186440677966102</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.72253333333333336</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.72259016393442621</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.72345161290322579</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.72403174603174603</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.72459375000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.72507692307692306</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.72539393939393937</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.72646268656716417</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.72717647058823531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.72878571428571426</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72953521126760568</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73013888888888889</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73098630136986298</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.73261333333333334</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.73309210526315793</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.73363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.73475641025641025</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.73554430379746838</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.73645000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.7370740740740741</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.73782926829268292</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.73842168674698794</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.73869047619047623</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.7393764705882353</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.73989534883720931</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.74037931034482762</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.74092045454545452</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.7413595505617977</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.74197777777777774</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.74247252747252745</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.74277173913043482</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.74348387096774193</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.7439787234042553</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.74464210526315788</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.74507291666666664</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.74530927835051541</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.74580612244897959</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.74639393939393939</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.74709000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59619999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62528571428571433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63537500000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64633333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65769999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6689090909090909</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68738461538461537</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69221428571428567</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69873333333333332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70281249999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70858823529411763</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71127777777777779</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71452631578947368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71814999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72377272727272723</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72643478260869565</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73072000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73257692307692313</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73474074074074069</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.73642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.73755172413793102</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73863333333333336</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.74045161290322581</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.74240625000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.74330303030303035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.74447058823529411</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.74554285714285717</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.74697222222222226</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74789189189189187</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74886842105263163</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75051282051282053</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.75134999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.75217073170731708</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.75323809523809526</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75423255813953494</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.75509090909090915</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.75608888888888892</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.75713043478260866</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75744680851063828</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.75839583333333338</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.75883673469387758</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.75949999999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.76062745098039219</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.76165384615384613</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.76252830188679244</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.76311111111111107</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.76403636363636362</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.76455357142857139</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.76503508771929829</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.76575862068965517</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.76693220338983048</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.76749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.7680327868852459</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.76872580645161293</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.7691904761904762</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.77001562499999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.77059999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.77074242424242423</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.77114925373134324</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.77151470588235294</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.77197101449275363</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.77255714285714283</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.77277464788732397</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77345833333333336</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.77419178082191786</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.77447297297297302</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.77493333333333336</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77490789473684207</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77518181818181819</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77524358974358976</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.77577215189873416</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.7759625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.77614814814814814</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.77640243902439021</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.77665060240963857</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.77647619047619043</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.77649411764705878</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.77688372093023261</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.77724137931034487</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.77748863636363641</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.77776404494382023</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.77788888888888885</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.7781538461538462</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.7782282608695652</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.77819354838709676</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.77840425531914892</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.77854736842105265</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.77873958333333337</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.77876288659793813</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.77884693877551026</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.77886868686868682</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.77881999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57866666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63716666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64985714285714291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6671111111111111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67945454545454542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68691666666666662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69646153846153847</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70392857142857146</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70933333333333337</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7129375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71917647058823531</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7280526315789474</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.73666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73968181818181822</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74186956521739134</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.74731999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74938461538461543</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75155555555555553</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75307142857142861</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75462068965517237</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75623333333333331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7577096774193548</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75859374999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76132352941176473</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76211428571428574</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76302777777777775</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76465789473684209</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76561538461538459</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76647500000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.7669268292682927</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.76851162790697669</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.76877272727272727</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.76991489361702126</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.77031249999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.77071428571428569</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.77122000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.7719607843137255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.77248076923076925</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.77266037735849058</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.77275925925925926</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.77341818181818178</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77376785714285712</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.77407017543859646</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.77474137931034481</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.77508474576271191</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.77534999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.77514754098360661</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.7749677419354839</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.77542857142857147</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.77549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.77529230769230773</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.77533333333333332</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.7754029850746269</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.77569117647058827</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.77552173913043476</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.77580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.7759859154929577</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77606944444444448</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.77615068493150685</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.77649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.77670666666666666</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77664473684210522</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77666233766233761</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.7767435897435897</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.77710126582278483</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.7769625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.77692592592592591</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.77691463414634143</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.77685882352941171</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.77686046511627904</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.77672413793103445</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.77678409090909095</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.77684269662921346</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.77726666666666666</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.7776153846153846</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.77781521739130433</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.77782795698924734</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.778031914893617</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.77829473684210526</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.77821874999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.77821649484536082</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.77836734693877552</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.77851515151515149</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.77849999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63549999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67874999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71885714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73024999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73577777777777775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75092857142857139</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75468749999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75711764705882356</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75861111111111112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7594736842105263</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76144999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.76133333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.76068181818181824</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76165217391304352</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76158333333333328</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76183999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76226923076923081</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76285185185185189</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76189285714285715</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76203448275862073</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.76213333333333333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76319354838709674</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76327272727272732</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76308823529411762</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76259999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76280555555555551</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76318918918918921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76339473684210524</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76310256410256405</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.7628048780487805</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.76266666666666671</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.76265116279069767</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.76313636363636361</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.76277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76291304347826083</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.76325531914893618</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.76368749999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.76365306122448984</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.76334000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.76392156862745098</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.76436538461538461</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.76441509433962262</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.76470370370370366</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.76489090909090907</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.76489285714285715</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.76487719298245616</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.76475862068965517</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.76430508474576275</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.76436666666666664</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.76404918032786884</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.76417741935483874</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.76406349206349211</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.76417187499999994</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.76427692307692308</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.76411940298507464</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.76407352941176465</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.76366666666666672</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.76388571428571428</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.76425352112676059</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.76441666666666663</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.76404109589041092</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.76386486486486482</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76378666666666661</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76361842105263156</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.76374025974025972</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.76382051282051278</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.76412658227848096</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.76419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.7642592592592593</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.76398780487804874</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.76402409638554214</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.76391666666666669</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.76403529411764703</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.76423255813953483</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.7641494252873563</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.76426136363636366</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.76417977528089887</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.76424444444444439</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.76416483516483513</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.76410869565217387</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.76407526881720433</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.76419148936170211</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.76413684210526311</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.76428125000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.76438144329896907</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.76431632653061221</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.76428282828282823</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.76444000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68766666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70025000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70644444444444443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71363636363636362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71715384615384614</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71921428571428569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72133333333333338</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72462499999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72576470588235298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72672222222222227</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72678947368421054</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72714999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72790476190476194</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72836363636363632</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72904347826086957</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72941666666666671</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.72940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7309230769230769</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73155555555555551</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.73235714285714282</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.73255172413793102</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73306666666666664</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.73325806451612907</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73409374999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7352727272727273</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73564705882352943</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.73605714285714285</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.73672222222222217</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73697297297297293</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.73686842105263162</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.73707692307692307</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.73747499999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.73802439024390243</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73816666666666664</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.73853488372093024</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.73831818181818187</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.73817777777777782</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7386304347826087</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.73846808510638295</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.7387083333333333</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.73848979591836739</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.73836000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.73894117647058821</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.73842307692307696</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.7386037735849057</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.73879629629629628</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.73885454545454543</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.73896428571428574</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.73940350877192984</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.73960344827586211</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.73950847457627122</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.73931666666666662</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.73945901639344258</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.7395806451612903</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.73941269841269841</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.73924999999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.73909230769230772</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.73907575757575761</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.73920895522388064</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.73941176470588232</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.73928985507246381</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.73932857142857145</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.73970422535211267</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73997222222222225</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73989041095890407</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.73979729729729726</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.73975999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.73982894736842109</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7398701298701299</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.7401282051282051</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.74020253164556959</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.74024999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.74029629629629634</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.74045121951219517</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.7404698795180723</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.74038095238095236</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.7405176470588235</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.74058139534883716</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.74065517241379308</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.74039772727272724</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.74046067415730332</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.74051111111111112</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.74054945054945054</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.74047826086956525</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.74038709677419356</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.74042553191489358</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.74024210526315792</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.74039583333333336</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.74028865979381442</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.7401938775510204</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.74016161616161613</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.74004999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$H$2:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69816666666666671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70562499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70463636363636362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7053076923076923</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70421428571428568</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70406666666666662</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70356249999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70376470588235296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70405263157894737</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70509999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.705952380952381</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70668181818181819</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70660869565217388</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.70708333333333329</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.70660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70623076923076922</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70544444444444443</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70471428571428574</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70441379310344832</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70463333333333333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70467741935483874</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70468750000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70521212121212118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.70511764705882352</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7052571428571428</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.70550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.70567567567567568</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70578947368421052</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.70551282051282049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.70597500000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.70641463414634142</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.70564285714285713</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.7056046511627907</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.70534090909090907</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.70517777777777779</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.70536956521739136</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.70529787234042551</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.70518749999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.70538775510204077</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.70569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.70580392156862748</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.70565384615384619</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.7058301886792453</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.70575925925925931</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.70550909090909086</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.70548214285714284</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.70514035087719296</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.70543103448275857</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.70516949152542374</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.70541666666666669</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.70532786885245902</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.7051935483870968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.70547619047619048</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.70540625000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.70556923076923073</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.70554545454545459</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.70552238805970147</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.70552941176470585</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7055652173913044</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70567142857142862</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70567605633802821</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.70568055555555553</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.70573972602739721</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.70598648648648654</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.70594666666666661</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.70607894736842103</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.70633766233766238</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.70610256410256411</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.70624050632911395</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.70596250000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.70593827160493827</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.70607317073170728</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.70627710843373492</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.70636904761904762</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.70643529411764705</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.70647674418604656</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.70633333333333337</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.7062954545454545</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.70634831460674152</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.70632222222222218</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.70635164835164832</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.70630434782608698</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.70638709677419353</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.70624468085106384</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.70643157894736841</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.70618749999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.70597938144329897</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.70620408163265302</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.70618181818181813</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.70631999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Nim_PerformanceResults_Epsilon0!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60950000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60819999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60866666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60971428571428576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61187499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61022222222222222</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61090909090909096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60991666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61015384615384616</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61271428571428577</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61266666666666669</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.61324999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61482352941176466</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61611111111111116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61765000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61963636363636365</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61913043478260865</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61845833333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.61912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61811111111111106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6180714285714286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.61765517241379309</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61796666666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.61712903225806448</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.61715624999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.61663636363636365</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61741176470588233</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61785714285714288</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.61852777777777779</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.6194324324324324</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61884210526315786</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61938461538461542</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.61927500000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61876190476190474</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.61865116279069765</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.61856818181818185</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.61848888888888887</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.61912765957446814</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61862499999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.61820408163265306</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.61795999999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.61805882352941177</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.61769230769230765</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.61826415094339626</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.61788888888888893</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61803636363636361</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.61812500000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.61847368421052629</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.61867241379310345</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.61916949152542378</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61888333333333334</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61846774193548382</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61823809523809525</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.61882812499999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6185846153846154</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.61856060606060603</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.61835820895522386</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.61839705882352947</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.61895652173913041</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.61911428571428573</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61908450704225348</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.61905555555555558</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.61890410958904107</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.61887837837837834</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.61893333333333334</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.6192368421052632</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.61916883116883115</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.61905128205128201</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.61934177215189878</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.61927500000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.61932098765432098</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.6194390243902439</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.6193855421686747</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.61952380952380948</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61927058823529413</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.61947674418604648</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.6195057471264368</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.61976136363636358</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.62003370786516854</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.62029999999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.62063736263736269</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.62050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.62049462365591401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.62076842105263152</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.62064583333333334</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.62052577319587632</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.62061224489795919</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.6206666666666667</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.62068999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="170383616"/>
+        <c:axId val="170561920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="170383616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170561920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170561920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170383616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5222,6 +9812,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8625,6 +13252,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
